--- a/Template/月報歷史資料列表.xlsx
+++ b/Template/月報歷史資料列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公司\case\2017綠能\EnergySave\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9842A3B-B944-4BCE-8C9A-7345F77936B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D724F414-675C-4F2F-B59D-3161E657886B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="5940" windowWidth="18180" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>審核主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,24 +388,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="15.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,18 +416,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
